--- a/documentation/experiments.xlsx
+++ b/documentation/experiments.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/education/johns-hopkins/2020-fall/bayesian-statistics/projects/final/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F313F4-8491-9845-910E-1EA8C27DECD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD40D32-6B7C-7344-A4CE-B619D12D0731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="4960" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{ADACE76E-76FA-6F40-ABAF-5FF772F1EA31}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="35560" windowHeight="13800" xr2:uid="{ADACE76E-76FA-6F40-ABAF-5FF772F1EA31}"/>
   </bookViews>
   <sheets>
-    <sheet name="K Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Prior" sheetId="2" r:id="rId2"/>
-    <sheet name="Data Size" sheetId="3" r:id="rId3"/>
+    <sheet name="Sample Size" sheetId="3" r:id="rId1"/>
+    <sheet name="K Topics" sheetId="1" r:id="rId2"/>
+    <sheet name="Prior" sheetId="2" r:id="rId3"/>
     <sheet name="Topic Model Class Balance" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
   <si>
     <t>LDA</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>B-&gt;A</t>
+  </si>
+  <si>
+    <t>Sample Iter</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Averaged Representation</t>
+  </si>
+  <si>
+    <t>l-2</t>
   </si>
 </sst>
 </file>
@@ -610,11 +622,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD36269-CB93-E349-A2FD-DF3CED464426}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="K6">
+        <f>$J$5 * L6</f>
+        <v>518</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K16" si="0">$J$5 * L7</f>
+        <v>466.2</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>414.40000000000003</v>
+      </c>
+      <c r="L8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>362.59999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>310.8</v>
+      </c>
+      <c r="L10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>207.20000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>155.4</v>
+      </c>
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>250</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>103.60000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>51.800000000000004</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E0E4A-8266-A341-901F-7CC7ED30D2F8}">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,66 +1235,84 @@
       <c r="F15" s="1">
         <v>75</v>
       </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F16" s="1">
         <v>100</v>
       </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
       <c r="M16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>20</v>
       </c>
       <c r="F17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F18" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F19" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F20" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F21" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F22" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>30</v>
       </c>
@@ -937,37 +1320,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F25" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F26" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F27" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F29" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>40</v>
       </c>
@@ -975,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F32" s="1">
         <v>20</v>
       </c>
@@ -1052,12 +1435,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF44F4DF-27D7-D44B-B97A-37D95F8B4B4A}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="V10">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1299,22 +1682,46 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
         <v>25</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U16" t="s">
         <v>27</v>
       </c>
-      <c r="V15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="U16" t="s">
+      <c r="V16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="21:22" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
         <v>28</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="21:22" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="21:22" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>68</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1326,347 +1733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD36269-CB93-E349-A2FD-DF3CED464426}">
-  <dimension ref="A1:L24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
-      <c r="K6">
-        <f>$J$5 * L6</f>
-        <v>518</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K16" si="0">$J$5 * L7</f>
-        <v>466.2</v>
-      </c>
-      <c r="L7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>414.40000000000003</v>
-      </c>
-      <c r="L8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>0.1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>362.59999999999997</v>
-      </c>
-      <c r="L9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>40</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>310.8</v>
-      </c>
-      <c r="L10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>259</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>207.20000000000002</v>
-      </c>
-      <c r="L12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>1000</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>155.4</v>
-      </c>
-      <c r="L13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <v>250</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>103.60000000000001</v>
-      </c>
-      <c r="L14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>51.800000000000004</v>
-      </c>
-      <c r="L15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16">
-        <v>5000</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935BEA6-56F1-884B-9176-C918B4DC8EF1}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,14 +2043,11 @@
       <c r="M15" t="s">
         <v>57</v>
       </c>
-      <c r="V15" t="s">
-        <v>25</v>
-      </c>
       <c r="W15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1988,14 +2057,17 @@
       <c r="M16" t="s">
         <v>61</v>
       </c>
+      <c r="V16" t="s">
+        <v>25</v>
+      </c>
       <c r="W16" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>58</v>
       </c>
@@ -2008,24 +2080,42 @@
       <c r="M17" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>68</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2033,7 +2123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2041,7 +2131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2049,7 +2139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +2147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>59</v>
       </c>
@@ -2071,7 +2161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2079,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
@@ -2087,7 +2177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2095,7 +2185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>60</v>
       </c>
@@ -2103,7 +2193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
@@ -2111,7 +2201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
@@ -2119,7 +2209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -2133,7 +2223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
